--- a/output/fit_clients/fit_round_246.xlsx
+++ b/output/fit_clients/fit_round_246.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2291621849.123383</v>
+        <v>1653431605.110421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07984049120934866</v>
+        <v>0.09101626891800241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02838702956208983</v>
+        <v>0.04388280093465562</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1145810959.444679</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2213739616.073597</v>
+        <v>2496846191.463835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1593595015475481</v>
+        <v>0.1132952112170651</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03814004144847282</v>
+        <v>0.03107421566464066</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1106869881.188417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3192046088.333815</v>
+        <v>4916477734.666752</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1305014348357515</v>
+        <v>0.1244995109346206</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02748656038047795</v>
+        <v>0.02845597227732526</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>89</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1596023001.09777</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3671415789.575547</v>
+        <v>2867173872.351138</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07576587059584484</v>
+        <v>0.1054725393877397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04732879497417507</v>
+        <v>0.04540270320406444</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>94</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1835707920.185215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1924668572.187092</v>
+        <v>1974661265.813956</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09903569821658627</v>
+        <v>0.1311898704139021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03495196847099639</v>
+        <v>0.05405381096765843</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>962334323.8348037</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2369306388.545958</v>
+        <v>1935135836.105409</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09233625740023546</v>
+        <v>0.06313588244754532</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03167225922932567</v>
+        <v>0.03011843066619082</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1184653219.841287</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3867803396.564364</v>
+        <v>3193386729.090084</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1678725259095928</v>
+        <v>0.1816119901343441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02290799307607098</v>
+        <v>0.02686957765315746</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1933901844.501949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1439435637.07515</v>
+        <v>1469534423.122435</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1498833776947598</v>
+        <v>0.1440770941534719</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03023318360737284</v>
+        <v>0.0344012786989877</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>719717922.9186026</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4842783286.395862</v>
+        <v>4777747266.360576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1538453838215472</v>
+        <v>0.190173721757234</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04781389852400931</v>
+        <v>0.04760563721571232</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>104</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2421391730.3606</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3804265817.585971</v>
+        <v>2824466522.54135</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1191906488923955</v>
+        <v>0.1546609412590561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03383724861685709</v>
+        <v>0.03195171373748405</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>102</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1902132907.81736</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2112305140.364251</v>
+        <v>2625979227.826472</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1505722950146774</v>
+        <v>0.14995636859567</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04986249251472224</v>
+        <v>0.0367332007396008</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1056152506.916597</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5325056766.463058</v>
+        <v>3282154404.041923</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06640876576688381</v>
+        <v>0.07040651855390709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02943098446647765</v>
+        <v>0.02716786435602951</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2662528370.850164</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3388059200.932774</v>
+        <v>2477783504.744785</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1580143575848661</v>
+        <v>0.1890709630636092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04197156591323445</v>
+        <v>0.03761973336781647</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1694029606.802404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1397879188.737228</v>
+        <v>1702982742.786867</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08643277775042327</v>
+        <v>0.1046981176360387</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04477973608232867</v>
+        <v>0.04815188558569573</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>698939656.7079295</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2566210831.797559</v>
+        <v>2811997460.693397</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09495692286480553</v>
+        <v>0.1011723480368183</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0312174340263494</v>
+        <v>0.04194436912600947</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1283105440.786973</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4272367328.75502</v>
+        <v>3927545380.718409</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1656148057375944</v>
+        <v>0.160578498610386</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04645812657835975</v>
+        <v>0.03204220838049533</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2136183685.496305</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4005388085.632282</v>
+        <v>2580752393.998645</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1693986009077076</v>
+        <v>0.1118801455077218</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02157918250077612</v>
+        <v>0.03409688184190775</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2002694000.251599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1168089445.19143</v>
+        <v>882230881.6028647</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1262156516141149</v>
+        <v>0.1499482397712028</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02228668700879484</v>
+        <v>0.01893482487617637</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>584044792.7407765</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2379032689.506963</v>
+        <v>2626784657.691231</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1603059546191025</v>
+        <v>0.1522852119713983</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0236072003431782</v>
+        <v>0.0283400767495568</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1189516330.7172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1902282466.047688</v>
+        <v>1915363087.062321</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1004926507030933</v>
+        <v>0.09070186390976048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04597211827928478</v>
+        <v>0.0301177196192323</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>951141278.2877709</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2515803589.664281</v>
+        <v>2463950792.073861</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1029511819099232</v>
+        <v>0.09667098827470549</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04884933541265848</v>
+        <v>0.04210516637557998</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1257901885.349822</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>998988399.1851979</v>
+        <v>959700239.2899386</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1211171659351551</v>
+        <v>0.1737720560249184</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03791471157645816</v>
+        <v>0.04157803119288893</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>499494269.9406945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3042218517.993033</v>
+        <v>3555714791.394452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1229027226501695</v>
+        <v>0.1431532951542336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03519493668803474</v>
+        <v>0.03756633776116823</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1521109291.398525</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>969346846.7639352</v>
+        <v>1116349872.273688</v>
       </c>
       <c r="F25" t="n">
-        <v>0.112283571952658</v>
+        <v>0.08070900222255407</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02392216352138259</v>
+        <v>0.02896110322603561</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>484673494.4252228</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1052586962.375306</v>
+        <v>1344145517.384892</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1027024642278491</v>
+        <v>0.115792291976494</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0266141769035862</v>
+        <v>0.03894715906197312</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>526293466.1395132</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3891642125.248096</v>
+        <v>4069529790.409195</v>
       </c>
       <c r="F27" t="n">
-        <v>0.13815753892904</v>
+        <v>0.1233566017648464</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0187235144161579</v>
+        <v>0.02286232529462432</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1945821078.136238</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2407452663.108926</v>
+        <v>3548104090.713195</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1013904222630093</v>
+        <v>0.1056325648374473</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0378897417733345</v>
+        <v>0.03325915242401502</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1203726291.357593</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3622385626.099802</v>
+        <v>3598774371.904246</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1288486201341317</v>
+        <v>0.1147294138837685</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0427072346712582</v>
+        <v>0.04170595553659282</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>109</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1811192856.024915</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2354468364.185475</v>
+        <v>2205750081.131691</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1353031550937521</v>
+        <v>0.1270260832137124</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03219643217189409</v>
+        <v>0.02442213888348611</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1177234259.898519</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1175703179.063205</v>
+        <v>1503144292.225872</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08773809801805056</v>
+        <v>0.111120539413649</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03815911973649281</v>
+        <v>0.05020903047795151</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>587851546.7105272</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1657894301.147229</v>
+        <v>1342926498.479756</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09055372327151992</v>
+        <v>0.105347917513743</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03547918275064406</v>
+        <v>0.0343003863687829</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>828947251.5959282</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2262415707.356276</v>
+        <v>2966652888.879177</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1946201323852522</v>
+        <v>0.1996816793387981</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04001609601031046</v>
+        <v>0.05899423525887636</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>75</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1131207912.132363</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1442248470.39888</v>
+        <v>1181932382.235717</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1005313386667815</v>
+        <v>0.09596129240716153</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02265355627671044</v>
+        <v>0.01989851435793854</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>721124200.50065</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>881073392.2559875</v>
+        <v>1211875698.946563</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1034442976607017</v>
+        <v>0.07892982010472646</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04213094363389565</v>
+        <v>0.03890565412594256</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>440536740.7784337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3238692937.621602</v>
+        <v>2256833546.709382</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1528706562296035</v>
+        <v>0.1308356485084287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02104925073040848</v>
+        <v>0.01967388902304283</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>61</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1619346431.576094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2686312008.187795</v>
+        <v>1849752820.869979</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09847849721912888</v>
+        <v>0.09555053313784385</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02626307788028545</v>
+        <v>0.03344850632617474</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1343156125.766179</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1874549890.576669</v>
+        <v>1568926709.373728</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09957228850480185</v>
+        <v>0.1067523368790683</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03708604564919175</v>
+        <v>0.0327796337389424</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>937274941.6277035</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1631091465.832051</v>
+        <v>2152405448.356636</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1671849049434908</v>
+        <v>0.14421136986821</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02804579475023716</v>
+        <v>0.02295184563267378</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>815545783.438741</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1720748418.7846</v>
+        <v>1362535159.463838</v>
       </c>
       <c r="F40" t="n">
-        <v>0.122696263097969</v>
+        <v>0.1446682300561263</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04326667900056646</v>
+        <v>0.0589103070658064</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>860374120.3219914</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2851247300.322379</v>
+        <v>2303636216.926512</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1149499196968797</v>
+        <v>0.1028160291795331</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04156145135692417</v>
+        <v>0.03349024322088887</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1425623641.086194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4166810205.945344</v>
+        <v>3823151545.225887</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0809123728214282</v>
+        <v>0.08570677859734661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04565642600006544</v>
+        <v>0.03666032064329183</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>80</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2083405143.713202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3023972209.907097</v>
+        <v>2226595056.909908</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2035403082814279</v>
+        <v>0.1974131161628978</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02509663195626432</v>
+        <v>0.01806020174268255</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>86</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1511986100.923643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1702123940.096855</v>
+        <v>2024622784.808034</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08982938838595859</v>
+        <v>0.0991631872444662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02704690025758867</v>
+        <v>0.02482609137331319</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>851062016.944199</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1740031066.442371</v>
+        <v>1939558518.626163</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1950059164896777</v>
+        <v>0.135082668200154</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05035650916105533</v>
+        <v>0.0427974088529955</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>870015497.864199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5575009210.189048</v>
+        <v>4590152779.713071</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1116712698261675</v>
+        <v>0.1704835350958719</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04569630606252122</v>
+        <v>0.05576237098083963</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>88</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2787504664.784854</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4507037988.253224</v>
+        <v>3598854557.022563</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1997919498841038</v>
+        <v>0.1931532517487399</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04588369156760356</v>
+        <v>0.03683026703873942</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>66</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2253519021.974842</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2847369336.967213</v>
+        <v>4044057031.099089</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1089380301137429</v>
+        <v>0.07214340959590525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02791661342134278</v>
+        <v>0.03571167860156241</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1423684769.860744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672349028.468153</v>
+        <v>1601127825.338832</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1420517026380468</v>
+        <v>0.1250030075274697</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04195697831540344</v>
+        <v>0.02728241366105106</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>836174519.459604</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2955233174.693517</v>
+        <v>2609122394.734963</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1398912769957178</v>
+        <v>0.120658502038937</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04134293073841321</v>
+        <v>0.04664663106294397</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>84</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1477616650.346501</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1372199048.288712</v>
+        <v>1043361394.464472</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1185603533869243</v>
+        <v>0.1377050633258772</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04377244717698399</v>
+        <v>0.04904127321348966</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>686099547.7805802</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4564494676.239382</v>
+        <v>5258375462.723557</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1375878829545789</v>
+        <v>0.1298698924000537</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05480210668908059</v>
+        <v>0.05601853131414108</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>101</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2282247361.363997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2753670989.958709</v>
+        <v>3006689875.616432</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2017223566597535</v>
+        <v>0.1973957685710634</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03177223785838355</v>
+        <v>0.03131692089417272</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>70</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1376835544.383058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4261801084.486681</v>
+        <v>3881881484.662373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1078751852520949</v>
+        <v>0.1546015018037585</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04614406259328872</v>
+        <v>0.03669588255171152</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2130900626.879133</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3949332299.936881</v>
+        <v>3781564275.444267</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1722686184472662</v>
+        <v>0.167845549546527</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0231627454402955</v>
+        <v>0.02755938278517933</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1974666122.633714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1689716061.861181</v>
+        <v>1137401027.198397</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1027898274101967</v>
+        <v>0.1108178174856364</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03757230787324997</v>
+        <v>0.03947490161139164</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>844858045.0794395</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3654030381.591805</v>
+        <v>2999361212.264134</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1121022608183641</v>
+        <v>0.1382100290895503</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02499960564634255</v>
+        <v>0.01797838224561125</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>78</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1827015250.107778</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1661361270.866342</v>
+        <v>1501214639.412057</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1565631332883154</v>
+        <v>0.1930574847828624</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03207262663565957</v>
+        <v>0.03589765907422307</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>830680651.8267169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3655292362.476666</v>
+        <v>4755090336.207226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1156917367379627</v>
+        <v>0.107635874505226</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04332127617531015</v>
+        <v>0.0466295606696215</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1827646173.807749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3192822854.706014</v>
+        <v>3530998087.19024</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1945119929631477</v>
+        <v>0.1764116763671763</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02021781821062096</v>
+        <v>0.02165317128978022</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1596411517.919246</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2789582016.895515</v>
+        <v>3217439638.483692</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1377409149647043</v>
+        <v>0.1260080334895042</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02167587080134847</v>
+        <v>0.03261655599237934</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>86</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1394791008.743264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1800225818.577679</v>
+        <v>1584056416.485781</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1347583593706573</v>
+        <v>0.1903252519912117</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04109660744689148</v>
+        <v>0.03469152344581478</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>900112937.3463889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4469477418.930046</v>
+        <v>4488706148.71457</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09226942081155191</v>
+        <v>0.07061265859309383</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03919043663924651</v>
+        <v>0.03099188108634614</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2234738750.883871</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4412299321.012432</v>
+        <v>3739936951.974766</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1658443570322172</v>
+        <v>0.1515183948628399</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03285853702902661</v>
+        <v>0.03074409057908043</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>76</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2206149725.361143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3792034566.664348</v>
+        <v>4679480281.984264</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1083120512059758</v>
+        <v>0.1463682871373126</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02896179767346952</v>
+        <v>0.02117988092939002</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>88</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1896017314.311914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3548456436.216986</v>
+        <v>5571983316.631759</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1538054002543517</v>
+        <v>0.1159713404391136</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03960489068541808</v>
+        <v>0.03443738867928657</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>72</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1774228167.51759</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3341356731.219973</v>
+        <v>3354647762.968805</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08786402643607261</v>
+        <v>0.06316650966258368</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03119572417998915</v>
+        <v>0.04166771775400287</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>81</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1670678355.000946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4263344845.729643</v>
+        <v>5395468265.842363</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1420532097395862</v>
+        <v>0.1400119499456293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04595488346715745</v>
+        <v>0.04487295591126114</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2131672434.601029</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1959353808.66595</v>
+        <v>1679233124.691047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1471536907643947</v>
+        <v>0.1476054705898343</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06001758829452197</v>
+        <v>0.05240005324407679</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>979676904.0095569</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3479125136.62828</v>
+        <v>3560500263.369615</v>
       </c>
       <c r="F70" t="n">
-        <v>0.102163570060209</v>
+        <v>0.0956713150631385</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03986390844979908</v>
+        <v>0.03343788794520358</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>70</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1739562576.456782</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4242471500.647422</v>
+        <v>3819466996.418952</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1250896497982226</v>
+        <v>0.1394777289252419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02821760497880714</v>
+        <v>0.02966997496225039</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>90</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2121235799.500287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1615491159.624544</v>
+        <v>2040431061.925815</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08209568422814043</v>
+        <v>0.07840005961523269</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04089644667318177</v>
+        <v>0.04918504871044238</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>807745588.1746817</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3288138761.989615</v>
+        <v>2701561784.187855</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07810435333145786</v>
+        <v>0.07853163963462297</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03785336707299781</v>
+        <v>0.03454437568784709</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1644069350.566788</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2706001324.90406</v>
+        <v>3158510080.39138</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1408055772349508</v>
+        <v>0.1545433601267226</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03048223266507591</v>
+        <v>0.03067586963445263</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>84</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1353000753.269246</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1526327100.703597</v>
+        <v>1714859076.326666</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1363484308378919</v>
+        <v>0.1254621222643994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.032824658627916</v>
+        <v>0.02646883635750086</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>763163558.9033394</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4593936188.321308</v>
+        <v>3999324118.087136</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0822668391352438</v>
+        <v>0.1118528368841575</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02810387773663625</v>
+        <v>0.02959481746560714</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>62</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2296968103.772347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1453386485.113932</v>
+        <v>1573364636.544278</v>
       </c>
       <c r="F77" t="n">
-        <v>0.182888174243014</v>
+        <v>0.1695106365393788</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02190838625513557</v>
+        <v>0.02446504009199139</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>726693223.3231214</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4516917815.281134</v>
+        <v>4303941605.143</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1045614360389193</v>
+        <v>0.1328289955395066</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05220463258565746</v>
+        <v>0.05427954192465736</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>86</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2258458836.368085</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1685499340.05744</v>
+        <v>1778681182.476998</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1376057857778366</v>
+        <v>0.1637007736521301</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03668580540499992</v>
+        <v>0.02936568829292602</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>842749736.6693951</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5587147176.174743</v>
+        <v>5389009970.863771</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08649894990318449</v>
+        <v>0.07926088185544605</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02946178790983898</v>
+        <v>0.03741452763249196</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>51</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2793573666.47941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4570513342.045798</v>
+        <v>4451162447.857113</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1118209262751346</v>
+        <v>0.08461902385298502</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02152334667958359</v>
+        <v>0.0274531753679501</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2285256655.421571</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4615980456.204575</v>
+        <v>3666484009.508529</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1470239058975629</v>
+        <v>0.1396154947917291</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02595466036650486</v>
+        <v>0.02045379431077621</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2307990233.446743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2414147023.959442</v>
+        <v>1937310882.205818</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1199725625695469</v>
+        <v>0.1487863621384764</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04534040676379374</v>
+        <v>0.03241819152531412</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1207073548.828393</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2274336863.267339</v>
+        <v>1756081171.719954</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09685938742265089</v>
+        <v>0.08501811479480044</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03193652532162597</v>
+        <v>0.031565629496512</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1137168396.444652</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2928117907.294318</v>
+        <v>3084081276.695526</v>
       </c>
       <c r="F85" t="n">
-        <v>0.147694921641367</v>
+        <v>0.1531320124864349</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03692649861281251</v>
+        <v>0.04699533340420636</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>93</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1464059005.854179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1864633736.8936</v>
+        <v>2600473262.442262</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1619791780897958</v>
+        <v>0.1278854443102107</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01698578642367996</v>
+        <v>0.02484988054219101</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>932316877.2357316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1172262453.955775</v>
+        <v>1233504195.657992</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1299921662520396</v>
+        <v>0.1636938560747394</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02792155417956104</v>
+        <v>0.04080729578609038</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>586131275.4576806</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3192029539.116119</v>
+        <v>3211876942.714129</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1561708534767069</v>
+        <v>0.1133563010721954</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03875348327566677</v>
+        <v>0.03983439193455684</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>97</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1596014818.974649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2192392664.841321</v>
+        <v>2654552067.827316</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241792836969292</v>
+        <v>0.09799774018428417</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02960042926757441</v>
+        <v>0.04032777372462522</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>83</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1096196429.732405</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1865120197.547147</v>
+        <v>1788488309.057977</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1378578483983298</v>
+        <v>0.1334048303034371</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03691053250874615</v>
+        <v>0.05129576041215406</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>932560144.3248317</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1896733285.033633</v>
+        <v>1969685289.788491</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1646627703872867</v>
+        <v>0.1423887956070706</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04149892388815596</v>
+        <v>0.05930719521285116</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>948366628.5543029</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1825732796.062005</v>
+        <v>2246277077.535067</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0825554119947146</v>
+        <v>0.08305799521683316</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03615992777201979</v>
+        <v>0.03750744081521367</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>63</v>
-      </c>
-      <c r="J92" t="n">
-        <v>912866331.0273075</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3250016436.360459</v>
+        <v>5047255400.0811</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1217703747366806</v>
+        <v>0.1279767188572175</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04632286693130038</v>
+        <v>0.05332153364382605</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>75</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1625008267.264209</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1948365328.437696</v>
+        <v>2381657470.783415</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1585058568370941</v>
+        <v>0.1510401638174572</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03520964124674784</v>
+        <v>0.04115780949825191</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>974182655.894184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2759657566.23009</v>
+        <v>3001601607.110297</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1117533569577722</v>
+        <v>0.1145818246790432</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03316052424884874</v>
+        <v>0.0484546738023332</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>59</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1379828800.29985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2317985087.502181</v>
+        <v>2043200681.577471</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1312783242756541</v>
+        <v>0.1101354218927255</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03567449489354771</v>
+        <v>0.04238364306512951</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1158992496.775007</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3771033168.547407</v>
+        <v>4751520447.780596</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1100107472852893</v>
+        <v>0.1494343652792134</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0285290145392728</v>
+        <v>0.0184303921249694</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1885516622.243522</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3009508799.494047</v>
+        <v>3095834170.310005</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1270051029296732</v>
+        <v>0.1138420674422993</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02974085176736417</v>
+        <v>0.03225419820961403</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1504754385.105033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2548487589.624491</v>
+        <v>2846445890.318376</v>
       </c>
       <c r="F99" t="n">
-        <v>0.117872187796536</v>
+        <v>0.09548925123285124</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03479365739546207</v>
+        <v>0.03551934740827946</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1274243748.086602</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3720153251.979417</v>
+        <v>4318614592.200097</v>
       </c>
       <c r="F100" t="n">
-        <v>0.154766742466768</v>
+        <v>0.1175544576895383</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02805852942014488</v>
+        <v>0.02496003488090258</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>77</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1860076674.319609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2833230972.395319</v>
+        <v>3086551838.59012</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1351657096642874</v>
+        <v>0.1577198693833472</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04108131989757058</v>
+        <v>0.0400713414677056</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>100</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1416615553.181568</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_246.xlsx
+++ b/output/fit_clients/fit_round_246.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1653431605.110421</v>
+        <v>2518418433.448094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09101626891800241</v>
+        <v>0.1126013802038145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04388280093465562</v>
+        <v>0.03462335193210656</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2496846191.463835</v>
+        <v>2203763266.476071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1132952112170651</v>
+        <v>0.1588549485800267</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03107421566464066</v>
+        <v>0.03386726576087676</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4916477734.666752</v>
+        <v>5132145260.175508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1244995109346206</v>
+        <v>0.1159420203692801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02845597227732526</v>
+        <v>0.02796076543285492</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2867173872.351138</v>
+        <v>3248165354.997491</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1054725393877397</v>
+        <v>0.09955302676744236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04540270320406444</v>
+        <v>0.03841141632461969</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1974661265.813956</v>
+        <v>2545265443.259019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1311898704139021</v>
+        <v>0.09396462250127721</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05405381096765843</v>
+        <v>0.03576557112804914</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1935135836.105409</v>
+        <v>2940440369.613218</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06313588244754532</v>
+        <v>0.1014551097341195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03011843066619082</v>
+        <v>0.0404077017044245</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3193386729.090084</v>
+        <v>2480169849.336895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1816119901343441</v>
+        <v>0.1463907008174342</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02686957765315746</v>
+        <v>0.0240793022212702</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1469534423.122435</v>
+        <v>1614308206.324138</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1440770941534719</v>
+        <v>0.1708851277137435</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0344012786989877</v>
+        <v>0.02848389496218949</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4777747266.360576</v>
+        <v>4850413283.54323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.190173721757234</v>
+        <v>0.154525988448568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04760563721571232</v>
+        <v>0.03559016100142609</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2824466522.54135</v>
+        <v>4010521312.901721</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1546609412590561</v>
+        <v>0.1375029125084282</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03195171373748405</v>
+        <v>0.03554505667313462</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2625979227.826472</v>
+        <v>2408359071.185577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.14995636859567</v>
+        <v>0.138904868200051</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0367332007396008</v>
+        <v>0.04651831612850664</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3282154404.041923</v>
+        <v>3310794954.864832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07040651855390709</v>
+        <v>0.07703394637700717</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02716786435602951</v>
+        <v>0.02489743634079836</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2477783504.744785</v>
+        <v>3150384665.541508</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1890709630636092</v>
+        <v>0.1737883992277435</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03761973336781647</v>
+        <v>0.03545765501966607</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1702982742.786867</v>
+        <v>1339720213.224564</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1046981176360387</v>
+        <v>0.08583443755197767</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04815188558569573</v>
+        <v>0.03717493142497291</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2811997460.693397</v>
+        <v>2209923531.349704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1011723480368183</v>
+        <v>0.0736713360402774</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04194436912600947</v>
+        <v>0.0324300144572568</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3927545380.718409</v>
+        <v>4043502172.281878</v>
       </c>
       <c r="F17" t="n">
-        <v>0.160578498610386</v>
+        <v>0.1079441911115038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03204220838049533</v>
+        <v>0.04985336520808729</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2580752393.998645</v>
+        <v>2601821338.719103</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1118801455077218</v>
+        <v>0.1712298168082158</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03409688184190775</v>
+        <v>0.03036679487219339</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>882230881.6028647</v>
+        <v>1321163159.716483</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1499482397712028</v>
+        <v>0.1868003580983468</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01893482487617637</v>
+        <v>0.02189336554989924</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2626784657.691231</v>
+        <v>2567478975.207407</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1522852119713983</v>
+        <v>0.148532231782335</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0283400767495568</v>
+        <v>0.02318355481630971</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1915363087.062321</v>
+        <v>1890313723.417285</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09070186390976048</v>
+        <v>0.07279186643430459</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0301177196192323</v>
+        <v>0.03048626738761456</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2463950792.073861</v>
+        <v>3188717488.159646</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09667098827470549</v>
+        <v>0.1056215354236077</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04210516637557998</v>
+        <v>0.04158140755385973</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>959700239.2899386</v>
+        <v>1302082900.937184</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1737720560249184</v>
+        <v>0.1534296122496978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04157803119288893</v>
+        <v>0.03472506013622895</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3555714791.394452</v>
+        <v>2646293167.275524</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1431532951542336</v>
+        <v>0.09674133499013964</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03756633776116823</v>
+        <v>0.03233552905076881</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1116349872.273688</v>
+        <v>1160087556.015012</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08070900222255407</v>
+        <v>0.1188780257285901</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02896110322603561</v>
+        <v>0.02884727036643766</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1344145517.384892</v>
+        <v>1235365405.968653</v>
       </c>
       <c r="F26" t="n">
-        <v>0.115792291976494</v>
+        <v>0.0777779013346894</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03894715906197312</v>
+        <v>0.03215219409890672</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4069529790.409195</v>
+        <v>3606094183.459714</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1233566017648464</v>
+        <v>0.1566527894886885</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02286232529462432</v>
+        <v>0.02399487597643595</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3548104090.713195</v>
+        <v>3431469146.509609</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1056325648374473</v>
+        <v>0.1396227896346178</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03325915242401502</v>
+        <v>0.0352668429189961</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3598774371.904246</v>
+        <v>4201960414.089606</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1147294138837685</v>
+        <v>0.09363837367510663</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04170595553659282</v>
+        <v>0.03078452145725898</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2205750081.131691</v>
+        <v>1593633416.94115</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1270260832137124</v>
+        <v>0.1051021198646225</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02442213888348611</v>
+        <v>0.03069672837633721</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1503144292.225872</v>
+        <v>935578601.8354378</v>
       </c>
       <c r="F31" t="n">
-        <v>0.111120539413649</v>
+        <v>0.1009915828409172</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05020903047795151</v>
+        <v>0.03577931309714649</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1342926498.479756</v>
+        <v>1783709163.007319</v>
       </c>
       <c r="F32" t="n">
-        <v>0.105347917513743</v>
+        <v>0.07704163023636897</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0343003863687829</v>
+        <v>0.03254441810646032</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2966652888.879177</v>
+        <v>1911806306.484221</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1996816793387981</v>
+        <v>0.1423344780037734</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05899423525887636</v>
+        <v>0.0483519300941495</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1181932382.235717</v>
+        <v>1129563639.087557</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09596129240716153</v>
+        <v>0.09966822835431167</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01989851435793854</v>
+        <v>0.02158214115270102</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1211875698.946563</v>
+        <v>1080661585.731873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07892982010472646</v>
+        <v>0.08647333182393532</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03890565412594256</v>
+        <v>0.02982237999498534</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2256833546.709382</v>
+        <v>2792592061.64516</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1308356485084287</v>
+        <v>0.1671938160103331</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01967388902304283</v>
+        <v>0.0247303761223095</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1849752820.869979</v>
+        <v>2519035016.062274</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09555053313784385</v>
+        <v>0.09296822223490313</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03344850632617474</v>
+        <v>0.02821965249924855</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1568926709.373728</v>
+        <v>1588887528.955899</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1067523368790683</v>
+        <v>0.08388455090590063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0327796337389424</v>
+        <v>0.03898066349055098</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152405448.356636</v>
+        <v>2079517836.356214</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14421136986821</v>
+        <v>0.1220554243389734</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02295184563267378</v>
+        <v>0.03114178845843312</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1362535159.463838</v>
+        <v>1382312518.395166</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1446682300561263</v>
+        <v>0.1368850492805621</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0589103070658064</v>
+        <v>0.04129344616747568</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2303636216.926512</v>
+        <v>1835132796.194103</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1028160291795331</v>
+        <v>0.1618477324378297</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03349024322088887</v>
+        <v>0.04713145180635205</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3823151545.225887</v>
+        <v>3893208899.978636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08570677859734661</v>
+        <v>0.1051786514629189</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03666032064329183</v>
+        <v>0.04338469199173743</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2226595056.909908</v>
+        <v>2869882240.793631</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1974131161628978</v>
+        <v>0.1340836072227572</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01806020174268255</v>
+        <v>0.01927830973678957</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2024622784.808034</v>
+        <v>1772798799.382526</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0991631872444662</v>
+        <v>0.08151048803618892</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02482609137331319</v>
+        <v>0.03166816661067528</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1939558518.626163</v>
+        <v>2142078326.316292</v>
       </c>
       <c r="F45" t="n">
-        <v>0.135082668200154</v>
+        <v>0.1678629131631595</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0427974088529955</v>
+        <v>0.04097167580211858</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4590152779.713071</v>
+        <v>5382126100.116409</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1704835350958719</v>
+        <v>0.1386547933223454</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05576237098083963</v>
+        <v>0.05722583455193152</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3598854557.022563</v>
+        <v>4384401915.581188</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1931532517487399</v>
+        <v>0.1359297211709629</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03683026703873942</v>
+        <v>0.0540649314432444</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4044057031.099089</v>
+        <v>4651616030.076872</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07214340959590525</v>
+        <v>0.08187248180817173</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03571167860156241</v>
+        <v>0.03746626157253463</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1601127825.338832</v>
+        <v>1825191507.51788</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1250030075274697</v>
+        <v>0.1495767640471324</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02728241366105106</v>
+        <v>0.03065376245350253</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2609122394.734963</v>
+        <v>2819671184.238827</v>
       </c>
       <c r="F50" t="n">
-        <v>0.120658502038937</v>
+        <v>0.1607710112617392</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04664663106294397</v>
+        <v>0.04362972475250773</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1043361394.464472</v>
+        <v>1080150620.651562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1377050633258772</v>
+        <v>0.1947835022224959</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04904127321348966</v>
+        <v>0.05343640936840845</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5258375462.723557</v>
+        <v>4752365115.852867</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1298698924000537</v>
+        <v>0.136602728204376</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05601853131414108</v>
+        <v>0.04018114397888548</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3006689875.616432</v>
+        <v>2696506901.914335</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1973957685710634</v>
+        <v>0.1622290650938489</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03131692089417272</v>
+        <v>0.02635936002458675</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3881881484.662373</v>
+        <v>3252427703.480262</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1546015018037585</v>
+        <v>0.1560832856759903</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03669588255171152</v>
+        <v>0.05168172367609965</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3781564275.444267</v>
+        <v>4679092709.555353</v>
       </c>
       <c r="F55" t="n">
-        <v>0.167845549546527</v>
+        <v>0.2095433099654995</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02755938278517933</v>
+        <v>0.02335306421047809</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1137401027.198397</v>
+        <v>1678316565.67263</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1108178174856364</v>
+        <v>0.1247419260424709</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03947490161139164</v>
+        <v>0.0578721822119125</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2999361212.264134</v>
+        <v>4410491376.604444</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1382100290895503</v>
+        <v>0.1429973278959839</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01797838224561125</v>
+        <v>0.02031147822095376</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1501214639.412057</v>
+        <v>1232629734.231995</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1930574847828624</v>
+        <v>0.1488396276650836</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03589765907422307</v>
+        <v>0.02484482478734697</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4755090336.207226</v>
+        <v>3920987772.233068</v>
       </c>
       <c r="F59" t="n">
-        <v>0.107635874505226</v>
+        <v>0.09221706862472658</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0466295606696215</v>
+        <v>0.03101917454692919</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3530998087.19024</v>
+        <v>3331924559.109303</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1764116763671763</v>
+        <v>0.1570731904142016</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02165317128978022</v>
+        <v>0.02871517671864167</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3217439638.483692</v>
+        <v>2539793244.869441</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1260080334895042</v>
+        <v>0.1211831533068942</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03261655599237934</v>
+        <v>0.02164855090444358</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1584056416.485781</v>
+        <v>1773249899.376396</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1903252519912117</v>
+        <v>0.1460381774022768</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03469152344581478</v>
+        <v>0.03166798164819597</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4488706148.71457</v>
+        <v>4446697958.118671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07061265859309383</v>
+        <v>0.08987712976016338</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03099188108634614</v>
+        <v>0.03522014309750445</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3739936951.974766</v>
+        <v>4251857488.642226</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1515183948628399</v>
+        <v>0.1174402285288527</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03074409057908043</v>
+        <v>0.02879119181556261</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4679480281.984264</v>
+        <v>5495992148.463653</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1463682871373126</v>
+        <v>0.1107092867743096</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02117988092939002</v>
+        <v>0.02094786948454179</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5571983316.631759</v>
+        <v>4003918023.126815</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1159713404391136</v>
+        <v>0.1145450053622498</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03443738867928657</v>
+        <v>0.04988241117722461</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3354647762.968805</v>
+        <v>3106051138.554202</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06316650966258368</v>
+        <v>0.08410147330645279</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04166771775400287</v>
+        <v>0.0407391081863124</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5395468265.842363</v>
+        <v>3772344489.293952</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1400119499456293</v>
+        <v>0.1474338512061611</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04487295591126114</v>
+        <v>0.04900420571944352</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1679233124.691047</v>
+        <v>1819419787.228588</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1476054705898343</v>
+        <v>0.1516030723973903</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05240005324407679</v>
+        <v>0.05259603698121627</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3560500263.369615</v>
+        <v>2736847214.299505</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0956713150631385</v>
+        <v>0.07989064751437097</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03343788794520358</v>
+        <v>0.0430860360595573</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3819466996.418952</v>
+        <v>3837060410.121451</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1394777289252419</v>
+        <v>0.1514314473231521</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02966997496225039</v>
+        <v>0.02684361304487123</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2040431061.925815</v>
+        <v>1876657914.318235</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07840005961523269</v>
+        <v>0.06979059346618439</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04918504871044238</v>
+        <v>0.03748273271195272</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2701561784.187855</v>
+        <v>3249447175.863614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07853163963462297</v>
+        <v>0.08498710611181448</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03454437568784709</v>
+        <v>0.04954883740561505</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3158510080.39138</v>
+        <v>3375593898.048938</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1545433601267226</v>
+        <v>0.131545978455761</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03067586963445263</v>
+        <v>0.02627363140693502</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1714859076.326666</v>
+        <v>2176721659.868063</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1254621222643994</v>
+        <v>0.1069125766431306</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02646883635750086</v>
+        <v>0.03719228258152279</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3999324118.087136</v>
+        <v>3409946508.366441</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1118528368841575</v>
+        <v>0.09129447933472939</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02959481746560714</v>
+        <v>0.02520667392494444</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1573364636.544278</v>
+        <v>1837679374.343387</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1695106365393788</v>
+        <v>0.1306906427925814</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02446504009199139</v>
+        <v>0.02084286401431855</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4303941605.143</v>
+        <v>3334018493.553092</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1328289955395066</v>
+        <v>0.1060578271658379</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05427954192465736</v>
+        <v>0.05556802039528183</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1778681182.476998</v>
+        <v>1390428379.598103</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1637007736521301</v>
+        <v>0.1331067446053611</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02936568829292602</v>
+        <v>0.03148948534501471</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5389009970.863771</v>
+        <v>4777059796.402888</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07926088185544605</v>
+        <v>0.1044250157506776</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03741452763249196</v>
+        <v>0.02966273056969712</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4451162447.857113</v>
+        <v>3704568553.08034</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08461902385298502</v>
+        <v>0.1221070457808143</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0274531753679501</v>
+        <v>0.03251350389931521</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3666484009.508529</v>
+        <v>4550217344.190441</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1396154947917291</v>
+        <v>0.1662350251106765</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02045379431077621</v>
+        <v>0.02857966804792082</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1937310882.205818</v>
+        <v>1846786159.764025</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1487863621384764</v>
+        <v>0.1517406226106781</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03241819152531412</v>
+        <v>0.0414464673483738</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1756081171.719954</v>
+        <v>1565768042.890178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08501811479480044</v>
+        <v>0.09030176412162719</v>
       </c>
       <c r="G84" t="n">
-        <v>0.031565629496512</v>
+        <v>0.05062017559544459</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3084081276.695526</v>
+        <v>2592793589.913701</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1531320124864349</v>
+        <v>0.1321043738863933</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04699533340420636</v>
+        <v>0.03843372992005362</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2600473262.442262</v>
+        <v>2517189135.110153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1278854443102107</v>
+        <v>0.1683361241012142</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02484988054219101</v>
+        <v>0.02749153500413433</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1233504195.657992</v>
+        <v>941016687.2126048</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1636938560747394</v>
+        <v>0.1391840138754923</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04080729578609038</v>
+        <v>0.03681387786975081</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3211876942.714129</v>
+        <v>2644745872.017464</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1133563010721954</v>
+        <v>0.1684172372731372</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03983439193455684</v>
+        <v>0.03074699915667355</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2654552067.827316</v>
+        <v>3174768527.34457</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09799774018428417</v>
+        <v>0.1142812178077621</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04032777372462522</v>
+        <v>0.03350506090802559</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1788488309.057977</v>
+        <v>1886479740.367577</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1334048303034371</v>
+        <v>0.1096739643477673</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05129576041215406</v>
+        <v>0.0420946564217108</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1969685289.788491</v>
+        <v>2075642584.482074</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1423887956070706</v>
+        <v>0.1359330364361771</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05930719521285116</v>
+        <v>0.04311796517815703</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2246277077.535067</v>
+        <v>1956289799.411114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08305799521683316</v>
+        <v>0.1063882768530597</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03750744081521367</v>
+        <v>0.03437290626728303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5047255400.0811</v>
+        <v>3999039570.392269</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1279767188572175</v>
+        <v>0.09182700389256376</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05332153364382605</v>
+        <v>0.04453868097156752</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2381657470.783415</v>
+        <v>1605939210.539938</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1510401638174572</v>
+        <v>0.120627291272883</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04115780949825191</v>
+        <v>0.03067032551947659</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3001601607.110297</v>
+        <v>2928229838.06744</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1145818246790432</v>
+        <v>0.09806545781187932</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0484546738023332</v>
+        <v>0.03279116622261591</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2043200681.577471</v>
+        <v>2049732129.542655</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1101354218927255</v>
+        <v>0.1263169579131901</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04238364306512951</v>
+        <v>0.03606957514961276</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4751520447.780596</v>
+        <v>4534589948.425483</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1494343652792134</v>
+        <v>0.1196275193475761</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0184303921249694</v>
+        <v>0.02908054186865857</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3095834170.310005</v>
+        <v>3419773368.215174</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1138420674422993</v>
+        <v>0.08167122007445289</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03225419820961403</v>
+        <v>0.02662161705693028</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2846445890.318376</v>
+        <v>2364882358.164119</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09548925123285124</v>
+        <v>0.1102949771919921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03551934740827946</v>
+        <v>0.02825073992131934</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4318614592.200097</v>
+        <v>4575755377.691672</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1175544576895383</v>
+        <v>0.1168624777143259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02496003488090258</v>
+        <v>0.01870740443185812</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3086551838.59012</v>
+        <v>3024240510.261911</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1577198693833472</v>
+        <v>0.139879817977919</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0400713414677056</v>
+        <v>0.04388121935781421</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_246.xlsx
+++ b/output/fit_clients/fit_round_246.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2518418433.448094</v>
+        <v>2412285054.639076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1126013802038145</v>
+        <v>0.08644517626011806</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03462335193210656</v>
+        <v>0.03296577585323158</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2203763266.476071</v>
+        <v>2358022813.027268</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588549485800267</v>
+        <v>0.1815642806164312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03386726576087676</v>
+        <v>0.03135717706057583</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5132145260.175508</v>
+        <v>3657372120.713288</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1159420203692801</v>
+        <v>0.1024776775786736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02796076543285492</v>
+        <v>0.03431759188203308</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>133</v>
+      </c>
+      <c r="J4" t="n">
+        <v>245</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77.79612466394872</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3248165354.997491</v>
+        <v>3506532062.821711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09955302676744236</v>
+        <v>0.07692228179937566</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03841141632461969</v>
+        <v>0.03572004644591557</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>246</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2545265443.259019</v>
+        <v>2858426837.67472</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09396462250127721</v>
+        <v>0.09231737667170743</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03576557112804914</v>
+        <v>0.0399081083653742</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2940440369.613218</v>
+        <v>2294592610.013421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1014551097341195</v>
+        <v>0.06470477578010747</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0404077017044245</v>
+        <v>0.04701833323824794</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2480169849.336895</v>
+        <v>2419503160.100365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1463907008174342</v>
+        <v>0.1633688509117512</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0240793022212702</v>
+        <v>0.02071439810899961</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1614308206.324138</v>
+        <v>1397956908.521419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1708851277137435</v>
+        <v>0.1520418332645341</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02848389496218949</v>
+        <v>0.02344845753714329</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4850413283.54323</v>
+        <v>4688752660.128049</v>
       </c>
       <c r="F10" t="n">
-        <v>0.154525988448568</v>
+        <v>0.1563218744558633</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03559016100142609</v>
+        <v>0.0349368440939752</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>224</v>
+      </c>
+      <c r="J10" t="n">
+        <v>246</v>
+      </c>
+      <c r="K10" t="n">
+        <v>107.6068681787563</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4010521312.901721</v>
+        <v>2661130117.04297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1375029125084282</v>
+        <v>0.1209981704355532</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03554505667313462</v>
+        <v>0.04050472033504565</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>102</v>
+      </c>
+      <c r="J11" t="n">
+        <v>245</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45.82522692763656</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2408359071.185577</v>
+        <v>2194051496.131253</v>
       </c>
       <c r="F12" t="n">
-        <v>0.138904868200051</v>
+        <v>0.1956131690185126</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04651831612850664</v>
+        <v>0.03586438034501789</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3310794954.864832</v>
+        <v>4089801014.423244</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07703394637700717</v>
+        <v>0.07180815693006816</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02489743634079836</v>
+        <v>0.02753225861017264</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>124</v>
+      </c>
+      <c r="J13" t="n">
+        <v>246</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3150384665.541508</v>
+        <v>2819284765.597087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1737883992277435</v>
+        <v>0.1211482042148585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03545765501966607</v>
+        <v>0.0354692197761432</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>243</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1339720213.224564</v>
+        <v>1759768909.712492</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08583443755197767</v>
+        <v>0.08881585696642812</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03717493142497291</v>
+        <v>0.03694773311300085</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2209923531.349704</v>
+        <v>1865600631.025403</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0736713360402774</v>
+        <v>0.1009095427609844</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0324300144572568</v>
+        <v>0.03235690349055658</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4043502172.281878</v>
+        <v>3865640929.929211</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1079441911115038</v>
+        <v>0.1255966495673641</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04985336520808729</v>
+        <v>0.05090020883683838</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>118</v>
+      </c>
+      <c r="J17" t="n">
+        <v>246</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2601821338.719103</v>
+        <v>3522732049.604608</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1712298168082158</v>
+        <v>0.1836022439016558</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03036679487219339</v>
+        <v>0.02368339911886231</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61</v>
+      </c>
+      <c r="J18" t="n">
+        <v>246</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1321163159.716483</v>
+        <v>875908436.7243594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1868003580983468</v>
+        <v>0.1492577440518852</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02189336554989924</v>
+        <v>0.02203351989229126</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2567478975.207407</v>
+        <v>1929317014.524344</v>
       </c>
       <c r="F20" t="n">
-        <v>0.148532231782335</v>
+        <v>0.1248752406487596</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02318355481630971</v>
+        <v>0.02026100948651673</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1890313723.417285</v>
+        <v>2631591753.068347</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07279186643430459</v>
+        <v>0.06379977460929656</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03048626738761456</v>
+        <v>0.03722057916670158</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3188717488.159646</v>
+        <v>2642486969.832137</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1056215354236077</v>
+        <v>0.1264522403504251</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04158140755385973</v>
+        <v>0.0388760871436129</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>245</v>
+      </c>
+      <c r="K22" t="n">
+        <v>39.24908401440581</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1302082900.937184</v>
+        <v>947081839.46202</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1534296122496978</v>
+        <v>0.1270265370977605</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03472506013622895</v>
+        <v>0.04018804710651976</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2646293167.275524</v>
+        <v>4119031316.719589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09674133499013964</v>
+        <v>0.1439636565183164</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03233552905076881</v>
+        <v>0.03635546460515222</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1160087556.015012</v>
+        <v>1200906682.89729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1188780257285901</v>
+        <v>0.07538623924087527</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02884727036643766</v>
+        <v>0.0225539776552141</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1235365405.968653</v>
+        <v>1363640420.49765</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0777779013346894</v>
+        <v>0.1012548587580605</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03215219409890672</v>
+        <v>0.02895147108520767</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3606094183.459714</v>
+        <v>4367369577.801434</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1566527894886885</v>
+        <v>0.1082889717703522</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02399487597643595</v>
+        <v>0.0227830064742621</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>99</v>
+      </c>
+      <c r="J27" t="n">
+        <v>246</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3431469146.509609</v>
+        <v>3302607037.277016</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1396227896346178</v>
+        <v>0.1315892555402572</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0352668429189961</v>
+        <v>0.04250369131085384</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4201960414.089606</v>
+        <v>5901357953.737945</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09363837367510663</v>
+        <v>0.09965743303516225</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03078452145725898</v>
+        <v>0.04640483925370781</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>234</v>
+      </c>
+      <c r="J29" t="n">
+        <v>246</v>
+      </c>
+      <c r="K29" t="n">
+        <v>113.92149887062</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1593633416.94115</v>
+        <v>1784328964.792166</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1051021198646225</v>
+        <v>0.1242940748229841</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03069672837633721</v>
+        <v>0.03599257152275628</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>935578601.8354378</v>
+        <v>1433534076.548422</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1009915828409172</v>
+        <v>0.07652665223069273</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03577931309714649</v>
+        <v>0.05008504950112101</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1783709163.007319</v>
+        <v>1565355762.937317</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07704163023636897</v>
+        <v>0.07644927792295572</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03254441810646032</v>
+        <v>0.03476030632608558</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1911806306.484221</v>
+        <v>2840289354.604863</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1423344780037734</v>
+        <v>0.1353727275698045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0483519300941495</v>
+        <v>0.04439687659633944</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1129563639.087557</v>
+        <v>1348835502.505311</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09966822835431167</v>
+        <v>0.07756073906091192</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02158214115270102</v>
+        <v>0.027885667110071</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1080661585.731873</v>
+        <v>1000810653.283635</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08647333182393532</v>
+        <v>0.09610339105782061</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02982237999498534</v>
+        <v>0.03616818574869962</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2792592061.64516</v>
+        <v>2558061214.180687</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1671938160103331</v>
+        <v>0.1335180582527659</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0247303761223095</v>
+        <v>0.01796304644411879</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2519035016.062274</v>
+        <v>2706219247.985326</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09296822223490313</v>
+        <v>0.104119570267192</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02821965249924855</v>
+        <v>0.0368503132563095</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1588887528.955899</v>
+        <v>1916219986.119853</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08388455090590063</v>
+        <v>0.1107891357801259</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03898066349055098</v>
+        <v>0.02474584471721698</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2079517836.356214</v>
+        <v>2123979330.881435</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1220554243389734</v>
+        <v>0.1587635908589067</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03114178845843312</v>
+        <v>0.02773777897392148</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1382312518.395166</v>
+        <v>1244481038.660568</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1368850492805621</v>
+        <v>0.1286174314491533</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04129344616747568</v>
+        <v>0.04403479362217803</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1835132796.194103</v>
+        <v>2359534224.437214</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1618477324378297</v>
+        <v>0.1299892336294666</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04713145180635205</v>
+        <v>0.02998540478412069</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3893208899.978636</v>
+        <v>4200850892.820969</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1051786514629189</v>
+        <v>0.0878588049858485</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04338469199173743</v>
+        <v>0.03296817686304238</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>102</v>
+      </c>
+      <c r="J42" t="n">
+        <v>246</v>
+      </c>
+      <c r="K42" t="n">
+        <v>109.7434590730367</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2869882240.793631</v>
+        <v>2864378274.963123</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1340836072227572</v>
+        <v>0.1595523212372008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01927830973678957</v>
+        <v>0.02259628262480996</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1772798799.382526</v>
+        <v>2266907856.502229</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08151048803618892</v>
+        <v>0.07830715967685276</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03166816661067528</v>
+        <v>0.02510902824789479</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2142078326.316292</v>
+        <v>1839080220.281759</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1678629131631595</v>
+        <v>0.1931444412888796</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04097167580211858</v>
+        <v>0.04750608408738078</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5382126100.116409</v>
+        <v>3948624230.134427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1386547933223454</v>
+        <v>0.1443930460545825</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05722583455193152</v>
+        <v>0.05260452907000124</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>141</v>
+      </c>
+      <c r="J46" t="n">
+        <v>245</v>
+      </c>
+      <c r="K46" t="n">
+        <v>95.60687654058772</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4384401915.581188</v>
+        <v>4211208027.226937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1359297211709629</v>
+        <v>0.1482269754748047</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0540649314432444</v>
+        <v>0.05266400500823796</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>110</v>
+      </c>
+      <c r="J47" t="n">
+        <v>246</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4651616030.076872</v>
+        <v>3705659515.550744</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08187248180817173</v>
+        <v>0.0927746580284244</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03746626157253463</v>
+        <v>0.02836733046727265</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>122</v>
+      </c>
+      <c r="J48" t="n">
+        <v>245</v>
+      </c>
+      <c r="K48" t="n">
+        <v>86.45138432313357</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1825191507.51788</v>
+        <v>1660306866.53696</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1495767640471324</v>
+        <v>0.1919044710274591</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03065376245350253</v>
+        <v>0.03146519598980681</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2819671184.238827</v>
+        <v>2988317214.162189</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1607710112617392</v>
+        <v>0.170288696757509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04362972475250773</v>
+        <v>0.0332005427376561</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>80</v>
+      </c>
+      <c r="J50" t="n">
+        <v>244</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080150620.651562</v>
+        <v>979825512.0411253</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1947835022224959</v>
+        <v>0.1674111947448789</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05343640936840845</v>
+        <v>0.04891499514938333</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4752365115.852867</v>
+        <v>4166201240.651927</v>
       </c>
       <c r="F52" t="n">
-        <v>0.136602728204376</v>
+        <v>0.119946103793859</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04018114397888548</v>
+        <v>0.04223062986622623</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>159</v>
+      </c>
+      <c r="J52" t="n">
+        <v>245</v>
+      </c>
+      <c r="K52" t="n">
+        <v>100.7200208296221</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2696506901.914335</v>
+        <v>2582211420.993107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1622290650938489</v>
+        <v>0.1274276341908032</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02635936002458675</v>
+        <v>0.02441811981863056</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3252427703.480262</v>
+        <v>4026175730.884653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1560832856759903</v>
+        <v>0.1687436675771151</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05168172367609965</v>
+        <v>0.03706435003468844</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>129</v>
+      </c>
+      <c r="J54" t="n">
+        <v>246</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4679092709.555353</v>
+        <v>3550643050.726272</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2095433099654995</v>
+        <v>0.1871167191452496</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02335306421047809</v>
+        <v>0.03196990415820491</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>110</v>
+      </c>
+      <c r="J55" t="n">
+        <v>246</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1678316565.67263</v>
+        <v>1453825523.22022</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247419260424709</v>
+        <v>0.1647238976727987</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0578721822119125</v>
+        <v>0.05378819011632973</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4410491376.604444</v>
+        <v>4173490275.904557</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1429973278959839</v>
+        <v>0.172319518116858</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02031147822095376</v>
+        <v>0.02522181333692972</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>97</v>
+      </c>
+      <c r="J57" t="n">
+        <v>245</v>
+      </c>
+      <c r="K57" t="n">
+        <v>103.7668078065579</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1232629734.231995</v>
+        <v>1377620024.655721</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1488396276650836</v>
+        <v>0.1301392366272416</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02484482478734697</v>
+        <v>0.03036085038618658</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3920987772.233068</v>
+        <v>3930871631.276203</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09221706862472658</v>
+        <v>0.1099807881516004</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03101917454692919</v>
+        <v>0.04434580666552056</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>119</v>
+      </c>
+      <c r="J59" t="n">
+        <v>245</v>
+      </c>
+      <c r="K59" t="n">
+        <v>84.4666618413478</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3331924559.109303</v>
+        <v>3290905586.528706</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1570731904142016</v>
+        <v>0.1445040788701649</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02871517671864167</v>
+        <v>0.02254314092533825</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>36</v>
+      </c>
+      <c r="J60" t="n">
+        <v>245</v>
+      </c>
+      <c r="K60" t="n">
+        <v>70.92420498477244</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2539793244.869441</v>
+        <v>2772866404.253024</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1211831533068942</v>
+        <v>0.1183003755970883</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02164855090444358</v>
+        <v>0.02613065815645936</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1773249899.376396</v>
+        <v>1580612478.089778</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1460381774022768</v>
+        <v>0.125174449496027</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03166798164819597</v>
+        <v>0.0348390018900047</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4446697958.118671</v>
+        <v>5168683842.309449</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08987712976016338</v>
+        <v>0.08723229447894129</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03522014309750445</v>
+        <v>0.04520258429514758</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>120</v>
+      </c>
+      <c r="J63" t="n">
+        <v>245</v>
+      </c>
+      <c r="K63" t="n">
+        <v>98.54600188367962</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4251857488.642226</v>
+        <v>4908126566.158237</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1174402285288527</v>
+        <v>0.1593486896776909</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02879119181556261</v>
+        <v>0.03199058609370659</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>121</v>
+      </c>
+      <c r="J64" t="n">
+        <v>246</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5495992148.463653</v>
+        <v>3892890204.581911</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1107092867743096</v>
+        <v>0.1648330481758996</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02094786948454179</v>
+        <v>0.02131122404272076</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>197</v>
+      </c>
+      <c r="J65" t="n">
+        <v>245</v>
+      </c>
+      <c r="K65" t="n">
+        <v>92.14166880324925</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4003918023.126815</v>
+        <v>4292443827.188772</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1145450053622498</v>
+        <v>0.1588106620742685</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04988241117722461</v>
+        <v>0.03518154670230797</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>121</v>
+      </c>
+      <c r="J66" t="n">
+        <v>246</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3106051138.554202</v>
+        <v>2757920329.084589</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08410147330645279</v>
+        <v>0.08452939596377289</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0407391081863124</v>
+        <v>0.03710198578730071</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3772344489.293952</v>
+        <v>5841463629.07443</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1474338512061611</v>
+        <v>0.1027675312665207</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04900420571944352</v>
+        <v>0.03983058354303339</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>125</v>
+      </c>
+      <c r="J68" t="n">
+        <v>246</v>
+      </c>
+      <c r="K68" t="n">
+        <v>104.2964258466796</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1819419787.228588</v>
+        <v>1721526720.683548</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1516030723973903</v>
+        <v>0.1326263806604283</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05259603698121627</v>
+        <v>0.0452905851857236</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2736847214.299505</v>
+        <v>3401201727.335425</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07989064751437097</v>
+        <v>0.1000213103722175</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0430860360595573</v>
+        <v>0.04408790402900962</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3837060410.121451</v>
+        <v>3400468767.266256</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1514314473231521</v>
+        <v>0.1374322272130703</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02684361304487123</v>
+        <v>0.02140029838837415</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>185</v>
+      </c>
+      <c r="J71" t="n">
+        <v>244</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1876657914.318235</v>
+        <v>2204805482.872549</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06979059346618439</v>
+        <v>0.1054611021465842</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03748273271195272</v>
+        <v>0.03446585096116137</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3249447175.863614</v>
+        <v>3148571606.087974</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08498710611181448</v>
+        <v>0.08558243151202914</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04954883740561505</v>
+        <v>0.03181228562109295</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>243</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3375593898.048938</v>
+        <v>2956412451.895242</v>
       </c>
       <c r="F74" t="n">
-        <v>0.131545978455761</v>
+        <v>0.1235949062987983</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02627363140693502</v>
+        <v>0.03046159906823269</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2176721659.868063</v>
+        <v>2501398612.044968</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1069125766431306</v>
+        <v>0.1286633784143934</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03719228258152279</v>
+        <v>0.03113667567593618</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3409946508.366441</v>
+        <v>4132642941.144158</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09129447933472939</v>
+        <v>0.1228891967949217</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02520667392494444</v>
+        <v>0.03001067773526044</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>114</v>
+      </c>
+      <c r="J76" t="n">
+        <v>246</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1837679374.343387</v>
+        <v>2254985915.385913</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1306906427925814</v>
+        <v>0.1266443952908757</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02084286401431855</v>
+        <v>0.02842385937644756</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3334018493.553092</v>
+        <v>3418246839.79082</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1060578271658379</v>
+        <v>0.08313269446004681</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05556802039528183</v>
+        <v>0.05085700878983225</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>122</v>
+      </c>
+      <c r="J78" t="n">
+        <v>246</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1390428379.598103</v>
+        <v>1457127759.599267</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1331067446053611</v>
+        <v>0.1666468482094434</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03148948534501471</v>
+        <v>0.04059584704004159</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4777059796.402888</v>
+        <v>4804068852.490862</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1044250157506776</v>
+        <v>0.09729514636953671</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02966273056969712</v>
+        <v>0.03482006629023458</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>120</v>
+      </c>
+      <c r="J80" t="n">
+        <v>245</v>
+      </c>
+      <c r="K80" t="n">
+        <v>77.26689845715821</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3704568553.08034</v>
+        <v>4288341538.274527</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1221070457808143</v>
+        <v>0.09980456229673926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03251350389931521</v>
+        <v>0.02910320909939364</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>113</v>
+      </c>
+      <c r="J81" t="n">
+        <v>245</v>
+      </c>
+      <c r="K81" t="n">
+        <v>90.17872969584801</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4550217344.190441</v>
+        <v>4651243632.11555</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1662350251106765</v>
+        <v>0.1393970403133976</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02857966804792082</v>
+        <v>0.02880923245130796</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>186</v>
+      </c>
+      <c r="J82" t="n">
+        <v>246</v>
+      </c>
+      <c r="K82" t="n">
+        <v>105.4475232090106</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1846786159.764025</v>
+        <v>1659407025.003541</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1517406226106781</v>
+        <v>0.1538328789583816</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0414464673483738</v>
+        <v>0.03590549934924357</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1565768042.890178</v>
+        <v>2143777263.659091</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09030176412162719</v>
+        <v>0.1160101530685812</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05062017559544459</v>
+        <v>0.03587202331557372</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2592793589.913701</v>
+        <v>2858137538.251578</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1321043738863933</v>
+        <v>0.1416546739554087</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03843372992005362</v>
+        <v>0.04900509338510778</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>242</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2517189135.110153</v>
+        <v>2373121053.482119</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1683361241012142</v>
+        <v>0.1353454563737402</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02749153500413433</v>
+        <v>0.02274980439911704</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>941016687.2126048</v>
+        <v>1115771545.335015</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1391840138754923</v>
+        <v>0.1642998211402465</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03681387786975081</v>
+        <v>0.02814279942114383</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2644745872.017464</v>
+        <v>2676840173.677996</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1684172372731372</v>
+        <v>0.1282708253664926</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03074699915667355</v>
+        <v>0.03431719817125567</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3174768527.34457</v>
+        <v>2847734706.02979</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1142812178077621</v>
+        <v>0.1057338221834859</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03350506090802559</v>
+        <v>0.02552265645595431</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1886479740.367577</v>
+        <v>1891491621.745661</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1096739643477673</v>
+        <v>0.09426403869111377</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0420946564217108</v>
+        <v>0.04877368176434415</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2075642584.482074</v>
+        <v>1957834832.803089</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1359330364361771</v>
+        <v>0.1537838292300566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04311796517815703</v>
+        <v>0.0536377985327984</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1956289799.411114</v>
+        <v>2800024902.806987</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1063882768530597</v>
+        <v>0.09543906121643399</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03437290626728303</v>
+        <v>0.03284845495587019</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3999039570.392269</v>
+        <v>4782278905.870149</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09182700389256376</v>
+        <v>0.1089283645372962</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04453868097156752</v>
+        <v>0.04538503594535712</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>109</v>
+      </c>
+      <c r="J93" t="n">
+        <v>246</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1605939210.539938</v>
+        <v>2258024158.641878</v>
       </c>
       <c r="F94" t="n">
-        <v>0.120627291272883</v>
+        <v>0.1438469282804896</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03067032551947659</v>
+        <v>0.04300600599031435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2928229838.06744</v>
+        <v>2682620055.222415</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09806545781187932</v>
+        <v>0.08626929002399085</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03279116622261591</v>
+        <v>0.04365773174585219</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2049732129.542655</v>
+        <v>1833995532.03328</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1263169579131901</v>
+        <v>0.09408564593365876</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03606957514961276</v>
+        <v>0.03789669206157143</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4534589948.425483</v>
+        <v>4429834493.240959</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1196275193475761</v>
+        <v>0.1276095350851136</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02908054186865857</v>
+        <v>0.02488677958514014</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>120</v>
+      </c>
+      <c r="J97" t="n">
+        <v>245</v>
+      </c>
+      <c r="K97" t="n">
+        <v>103.974679164645</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3419773368.215174</v>
+        <v>3610335187.678827</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08167122007445289</v>
+        <v>0.1099729681463355</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02662161705693028</v>
+        <v>0.02733406248469585</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>60</v>
+      </c>
+      <c r="J98" t="n">
+        <v>245</v>
+      </c>
+      <c r="K98" t="n">
+        <v>72.15515772145925</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2364882358.164119</v>
+        <v>3382091694.673204</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1102949771919921</v>
+        <v>0.1342972480506834</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02825073992131934</v>
+        <v>0.02217081689912074</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4575755377.691672</v>
+        <v>4773622992.80304</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1168624777143259</v>
+        <v>0.1604976051975056</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01870740443185812</v>
+        <v>0.01720663577986783</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>102</v>
+      </c>
+      <c r="J100" t="n">
+        <v>246</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3024240510.261911</v>
+        <v>2277247414.244153</v>
       </c>
       <c r="F101" t="n">
-        <v>0.139879817977919</v>
+        <v>0.188474580042985</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04388121935781421</v>
+        <v>0.05794983022162159</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
